--- a/狩獵島新手引導.xlsx
+++ b/狩獵島新手引導.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philo.wu\Documents\GitHub\Philo_Snake\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A7AD5-C28E-4834-B6EE-19CAA38AF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-23835" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="HuntNewHandData" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="通用key說明" sheetId="2" r:id="rId5"/>
+    <sheet name="HuntNewHandData" sheetId="1" r:id="rId1"/>
+    <sheet name="通用key說明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="y/2XBF5yTiuZfh4VTQmzcV7QwczsjNf9M3ISJIwJ0Tk="/>
@@ -17,32 +26,48 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H1">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAAA6fCz_6o
-    (2023-10-05 01:39:35)
-0.表示c端上發無條件完成</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E1">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAA6fCz_6k
     (2023-10-05 01:39:35)
 1 . 開初級寶箱
 2 . 用xx倍率狩獵XX野怪   condparm1 : 0.任意  &gt;0.固定倍率   condparm2: 0:任意 &gt;0.怪id
 3 . 開圖鑒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAA6fCz_6o
+    (2023-10-05 01:39:35)
+0.表示c端上發無條件完成</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miTSc07zsMe/voHSmrUxmXMQ2KOig=="/>
     </ext>
   </extLst>
@@ -50,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>序號</t>
   </si>
@@ -186,37 +211,57 @@
   <si>
     <t>狩獵 %d 隻 藍毛精英</t>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,7 +269,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -246,7 +291,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -260,79 +311,86 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -522,31 +580,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:X992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="4.0" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A5" sqref="A5" pane="bottomLeft"/>
-      <selection activeCell="B5" sqref="B5" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="16.75"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +649,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -628,7 +689,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -670,7 +731,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -712,30 +773,30 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8">
-        <v>9001.0</v>
+        <v>9001</v>
       </c>
       <c r="E5" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
@@ -754,30 +815,30 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="8">
-        <v>9002.0</v>
+        <v>9002</v>
       </c>
       <c r="E6" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
@@ -796,30 +857,30 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="8">
-        <v>9003.0</v>
+        <v>9003</v>
       </c>
       <c r="E7" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -838,30 +899,30 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="8">
-        <v>9004.0</v>
+        <v>9004</v>
       </c>
       <c r="E8" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>2002003.0</v>
+        <v>2002003</v>
       </c>
       <c r="H8" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
@@ -880,30 +941,30 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
-        <v>5.0</v>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="8">
-        <v>9005.0</v>
+        <v>9005</v>
       </c>
       <c r="E9" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
@@ -922,30 +983,30 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8">
-        <v>1.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="8">
-        <v>9006.0</v>
+        <v>9006</v>
       </c>
       <c r="E10" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="8">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G10" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -964,30 +1025,30 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="8">
-        <v>9007.0</v>
+        <v>9007</v>
       </c>
       <c r="E11" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10">
-        <v>2003003.0</v>
+        <v>2003003</v>
       </c>
       <c r="H11" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
@@ -1006,30 +1067,30 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="8">
-        <v>9008.0</v>
+        <v>9008</v>
       </c>
       <c r="E12" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
@@ -1048,30 +1109,30 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="8">
-        <v>9009.0</v>
+        <v>9009</v>
       </c>
       <c r="E13" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>2002002.0</v>
+        <v>2002002</v>
       </c>
       <c r="H13" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
@@ -1090,30 +1151,30 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="8">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8">
-        <v>9010.0</v>
+        <v>9010</v>
       </c>
       <c r="E14" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
@@ -1132,7 +1193,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1158,7 +1219,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1184,7 +1245,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1210,7 +1271,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1236,7 +1297,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1262,7 +1323,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1288,7 +1349,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1314,7 +1375,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1340,7 +1401,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1366,7 +1427,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1392,7 +1453,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1418,7 +1479,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1444,7 +1505,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1470,7 +1531,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1496,7 +1557,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1522,7 +1583,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1548,7 +1609,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1574,7 +1635,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1600,7 +1661,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1626,7 +1687,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1652,7 +1713,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1678,7 +1739,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1704,7 +1765,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1730,7 +1791,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1756,7 +1817,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1782,7 +1843,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1808,7 +1869,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1834,7 +1895,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1860,7 +1921,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1886,7 +1947,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1912,7 +1973,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1938,7 +1999,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1964,7 +2025,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1990,7 +2051,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2016,7 +2077,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:24" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2042,7 +2103,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:24" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2068,7 +2129,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:24" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2094,7 +2155,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:24" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2120,7 +2181,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:24" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2146,7 +2207,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:24" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2172,7 +2233,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:24" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2198,7 +2259,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:24" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2224,7 +2285,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:24" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2250,7 +2311,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:24" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2276,7 +2337,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:24" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2302,7 +2363,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:24" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2328,7 +2389,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:24" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2354,7 +2415,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:24" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2380,7 +2441,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:24" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2406,7 +2467,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:24" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2432,7 +2493,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:24" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2458,7 +2519,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:24" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2484,7 +2545,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:24" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2510,7 +2571,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:24" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2536,7 +2597,7 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:24" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2562,7 +2623,7 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:24" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2588,7 +2649,7 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:24" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2614,7 +2675,7 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:24" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2640,7 +2701,7 @@
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:24" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2666,7 +2727,7 @@
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:24" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2692,7 +2753,7 @@
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:24" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2718,7 +2779,7 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2744,7 +2805,7 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2770,7 +2831,7 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2796,7 +2857,7 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:24" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2822,7 +2883,7 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:24" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2848,7 +2909,7 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:24" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2874,7 +2935,7 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:24" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2900,7 +2961,7 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:24" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2926,7 +2987,7 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:24" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2952,7 +3013,7 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:24" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2978,7 +3039,7 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:24" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3004,7 +3065,7 @@
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:24" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -3030,7 +3091,7 @@
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:24" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -3056,7 +3117,7 @@
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:24" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3082,7 +3143,7 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:24" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3108,7 +3169,7 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:24" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3134,7 +3195,7 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:24" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3160,7 +3221,7 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:24" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3186,7 +3247,7 @@
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:24" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3212,7 +3273,7 @@
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:24" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3238,7 +3299,7 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:24" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3264,7 +3325,7 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:24" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3290,7 +3351,7 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:24" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3316,7 +3377,7 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:24" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3342,7 +3403,7 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:24" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3368,7 +3429,7 @@
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:24" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3394,7 +3455,7 @@
       <c r="W101" s="3"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:24" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3420,7 +3481,7 @@
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:24" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3446,7 +3507,7 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:24" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3472,7 +3533,7 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:24" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3498,7 +3559,7 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:24" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3524,7 +3585,7 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:24" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3550,7 +3611,7 @@
       <c r="W107" s="3"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:24" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3576,7 +3637,7 @@
       <c r="W108" s="3"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:24" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3602,7 +3663,7 @@
       <c r="W109" s="3"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:24" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3628,7 +3689,7 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:24" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3654,7 +3715,7 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:24" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3680,7 +3741,7 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:24" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3706,7 +3767,7 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:24" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3732,7 +3793,7 @@
       <c r="W114" s="3"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:24" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3758,7 +3819,7 @@
       <c r="W115" s="3"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:24" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3784,7 +3845,7 @@
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:24" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3810,7 +3871,7 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:24" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3836,7 +3897,7 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:24" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3862,7 +3923,7 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:24" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3888,7 +3949,7 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:24" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3914,7 +3975,7 @@
       <c r="W121" s="3"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:24" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3940,7 +4001,7 @@
       <c r="W122" s="3"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:24" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3966,7 +4027,7 @@
       <c r="W123" s="3"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:24" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3992,7 +4053,7 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:24" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -4018,7 +4079,7 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:24" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -4044,7 +4105,7 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:24" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -4070,7 +4131,7 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:24" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -4096,7 +4157,7 @@
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:24" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4122,7 +4183,7 @@
       <c r="W129" s="3"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:24" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4148,7 +4209,7 @@
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:24" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4174,7 +4235,7 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:24" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4200,7 +4261,7 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:24" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4226,7 +4287,7 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:24" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4252,7 +4313,7 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:24" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4278,7 +4339,7 @@
       <c r="W135" s="3"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:24" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4304,7 +4365,7 @@
       <c r="W136" s="3"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:24" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4330,7 +4391,7 @@
       <c r="W137" s="3"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:24" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4356,7 +4417,7 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:24" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4382,7 +4443,7 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:24" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4408,7 +4469,7 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:24" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4434,7 +4495,7 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:24" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4460,7 +4521,7 @@
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:24" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4486,7 +4547,7 @@
       <c r="W143" s="3"/>
       <c r="X143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:24" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4512,7 +4573,7 @@
       <c r="W144" s="3"/>
       <c r="X144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:24" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4538,7 +4599,7 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:24" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4564,7 +4625,7 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:24" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4590,7 +4651,7 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:24" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4616,7 +4677,7 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:24" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4642,7 +4703,7 @@
       <c r="W149" s="3"/>
       <c r="X149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:24" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4668,7 +4729,7 @@
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:24" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4694,7 +4755,7 @@
       <c r="W151" s="3"/>
       <c r="X151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:24" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4720,7 +4781,7 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:24" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4746,7 +4807,7 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:24" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4772,7 +4833,7 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:24" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4798,7 +4859,7 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:24" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4824,7 +4885,7 @@
       <c r="W156" s="3"/>
       <c r="X156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:24" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4850,7 +4911,7 @@
       <c r="W157" s="3"/>
       <c r="X157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:24" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4876,7 +4937,7 @@
       <c r="W158" s="3"/>
       <c r="X158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:24" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4902,7 +4963,7 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:24" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4928,7 +4989,7 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:24" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4954,7 +5015,7 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:24" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4980,7 +5041,7 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:24" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5006,7 +5067,7 @@
       <c r="W163" s="3"/>
       <c r="X163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:24" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5032,7 +5093,7 @@
       <c r="W164" s="3"/>
       <c r="X164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:24" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5058,7 +5119,7 @@
       <c r="W165" s="3"/>
       <c r="X165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:24" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5084,7 +5145,7 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:24" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5110,7 +5171,7 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:24" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5136,7 +5197,7 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:24" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5162,7 +5223,7 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:24" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5188,7 +5249,7 @@
       <c r="W170" s="3"/>
       <c r="X170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:24" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5214,7 +5275,7 @@
       <c r="W171" s="3"/>
       <c r="X171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:24" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5240,7 +5301,7 @@
       <c r="W172" s="3"/>
       <c r="X172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:24" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5266,7 +5327,7 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:24" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5292,7 +5353,7 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:24" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5318,7 +5379,7 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:24" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5344,7 +5405,7 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:24" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5370,7 +5431,7 @@
       <c r="W177" s="3"/>
       <c r="X177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:24" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5396,7 +5457,7 @@
       <c r="W178" s="3"/>
       <c r="X178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:24" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5422,7 +5483,7 @@
       <c r="W179" s="3"/>
       <c r="X179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:24" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5448,7 +5509,7 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:24" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5474,7 +5535,7 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:24" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5500,7 +5561,7 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:24" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5526,7 +5587,7 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:24" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5552,7 +5613,7 @@
       <c r="W184" s="3"/>
       <c r="X184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:24" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5578,7 +5639,7 @@
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:24" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5604,7 +5665,7 @@
       <c r="W186" s="3"/>
       <c r="X186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:24" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5630,7 +5691,7 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:24" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5656,7 +5717,7 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:24" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5682,7 +5743,7 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:24" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5708,7 +5769,7 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:24" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5734,7 +5795,7 @@
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:24" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5760,7 +5821,7 @@
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:24" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5786,7 +5847,7 @@
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:24" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5812,7 +5873,7 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:24" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5838,7 +5899,7 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:24" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5864,7 +5925,7 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:24" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5890,7 +5951,7 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:24" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5916,7 +5977,7 @@
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:24" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5942,7 +6003,7 @@
       <c r="W199" s="3"/>
       <c r="X199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:24" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5968,7 +6029,7 @@
       <c r="W200" s="3"/>
       <c r="X200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:24" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5994,7 +6055,7 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:24" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6020,7 +6081,7 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:24" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6046,7 +6107,7 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:24" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6072,7 +6133,7 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:24" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6098,7 +6159,7 @@
       <c r="W205" s="3"/>
       <c r="X205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:24" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6124,7 +6185,7 @@
       <c r="W206" s="3"/>
       <c r="X206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:24" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6150,7 +6211,7 @@
       <c r="W207" s="3"/>
       <c r="X207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:24" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6176,7 +6237,7 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:24" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6202,7 +6263,7 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:24" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6228,7 +6289,7 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:24" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6254,7 +6315,7 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:24" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6280,18 +6341,18 @@
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="213" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="214" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="215" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="217" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="219" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:24" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7061,35 +7122,38 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.88"/>
-    <col customWidth="1" min="2" max="2" width="12.63"/>
-    <col customWidth="1" min="3" max="3" width="37.5"/>
-    <col customWidth="1" min="4" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="6" width="7.13"/>
-    <col customWidth="1" min="7" max="7" width="26.38"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6.75" customHeight="1">
+    <row r="1" spans="1:7" ht="6.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="18.0" customHeight="1">
+    <row r="2" spans="1:7" ht="18" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="13" t="s">
         <v>30</v>
@@ -7106,7 +7170,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" ht="18.0" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>23</v>
@@ -7115,7 +7179,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="15" t="s">
@@ -7123,7 +7187,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" ht="18.0" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>24</v>
@@ -7132,7 +7196,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
@@ -7140,7 +7204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" ht="18.0" customHeight="1">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>25</v>
@@ -7149,7 +7213,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -7157,7 +7221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>26</v>
@@ -7166,7 +7230,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="15" t="s">
@@ -7174,7 +7238,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" ht="18.0" customHeight="1">
+    <row r="7" spans="1:7" ht="18" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
@@ -7183,10 +7247,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" ht="18.0" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>28</v>
@@ -7195,10 +7259,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9" ht="18.0" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -7207,1068 +7271,1068 @@
         <v>44</v>
       </c>
       <c r="D9" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -9046,6 +9110,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/狩獵島新手引導.xlsx
+++ b/狩獵島新手引導.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philo.wu\Documents\GitHub\Philo_Snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A7AD5-C28E-4834-B6EE-19CAA38AF9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A9136-520F-4907-B627-639246CF8DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23835" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>25</v>
@@ -904,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>26</v>
@@ -946,7 +946,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
@@ -1030,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>28</v>
@@ -1072,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>24</v>
@@ -1114,7 +1114,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>29</v>
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>24</v>
